--- a/results/Sample-results-sheet.xlsx
+++ b/results/Sample-results-sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanginer/sites/anonCKIM/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanginer/sites/smartDescriptor/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685EF75B-DF60-F544-97EF-678795E1E041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E32C036C-FEE7-6E49-9DDE-AB1FB0B633CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="1240" windowWidth="26700" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3940" yWindow="-19840" windowWidth="26700" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results-formatted" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="206">
   <si>
     <t>id</t>
   </si>
@@ -448,9 +448,6 @@
   </si>
   <si>
     <t>Evaluation GPT3.5</t>
-  </si>
-  <si>
-    <t>Alpaca</t>
   </si>
   <si>
     <t>Evaluation FLAN UL2</t>
@@ -749,9 +746,6 @@
   </si>
   <si>
     <t>result UL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CRediT: F1: No resultsad</t>
   </si>
   <si>
     <t>Hallucinations type</t>
@@ -1047,7 +1041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1058,9 +1052,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1073,29 +1064,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1118,58 +1097,33 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1508,24 +1462,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5E4A76-00FD-704F-901E-CC8E0B951C55}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="35" customWidth="1"/>
-    <col min="3" max="3" width="34" style="35" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="29" customWidth="1"/>
+    <col min="3" max="3" width="34" style="29" customWidth="1"/>
     <col min="4" max="4" width="56.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="57.1640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
-    <col min="7" max="10" width="33.6640625" customWidth="1"/>
+    <col min="7" max="9" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>131</v>
       </c>
@@ -1551,718 +1505,692 @@
         <v>138</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="260" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="260" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="11" t="str">
+      <c r="D2" s="10" t="str">
         <f>"Purposes: "&amp; 'Results-raw'!F2&amp;CHAR(10)&amp;CHAR(10)&amp;"Gaps: "&amp;'Results-raw'!F5 &amp;CHAR(10)&amp;CHAR(10)&amp;"Tasks: "&amp;'Results-raw'!F3 &amp;CHAR(10)&amp;CHAR(10)&amp;"Tags: "&amp;'Results-raw'!F4</f>
         <v xml:space="preserve">Purposes: 
 Gaps: 
 Tasks: 
 Tags: </v>
       </c>
-      <c r="E2" s="11" t="str">
+      <c r="E2" s="10" t="str">
         <f>"Purposes: "&amp; 'Results-raw'!G2&amp;CHAR(10)&amp;CHAR(10)&amp;"Gaps: "&amp;'Results-raw'!G5 &amp;CHAR(10)&amp;CHAR(10)&amp;"Tasks: "&amp;'Results-raw'!G3 &amp;CHAR(10)&amp;CHAR(10)&amp;"Tags: "&amp;'Results-raw'!G4</f>
         <v xml:space="preserve">Purposes: 
 Gaps: 
 Tasks: 
 Tags: </v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="13" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="160" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="11" t="str">
+      <c r="D3" s="10" t="str">
         <f>'Results-raw'!F7&amp;CHAR(10)&amp;CHAR(10)&amp;'Results-raw'!F8</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E3" s="11" t="str">
+      <c r="E3" s="10" t="str">
         <f>'Results-raw'!G7&amp;CHAR(10)&amp;CHAR(10)&amp;'Results-raw'!G8</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="133" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="11" t="str">
-        <f>'Results-raw'!F9 &amp; CHAR(10) &amp; CHAR(10) &amp; 'Results-raw'!F10</f>
+      <c r="D4" s="10" t="str">
+        <f>'Results-raw'!F9 &amp; CHAR(10) &amp; CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="E4" s="10" t="str">
+        <f>'Results-raw'!G9 &amp; CHAR(10) &amp; CHAR(10)</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="10">
+        <f>'Results-raw'!F10</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <f>'Results-raw'!G10</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="11">
-        <f>'Results-raw'!F11</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <f>'Results-raw'!G11</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="82" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="11" t="str">
-        <f>'Results-raw'!F12 &amp; CHAR(10) &amp; CHAR(10) &amp; "Type:" &amp; 'Results-raw'!F13  &amp; CHAR(10) &amp; CHAR(10) &amp; "Grants ID:" &amp; 'Results-raw'!F14</f>
+      <c r="D6" s="10" t="str">
+        <f>'Results-raw'!F11 &amp; CHAR(10) &amp; CHAR(10) &amp; "Type:" &amp; 'Results-raw'!F12  &amp; CHAR(10) &amp; CHAR(10) &amp; "Grants ID:" &amp; 'Results-raw'!F13</f>
         <v xml:space="preserve">
 Type:
 Grants ID:</v>
       </c>
-      <c r="E6" s="11" t="str">
-        <f>'Results-raw'!G12 &amp; CHAR(10) &amp; CHAR(10) &amp; "Type:" &amp; 'Results-raw'!G13  &amp; CHAR(10) &amp; CHAR(10) &amp; "Grants ID:" &amp; 'Results-raw'!G14</f>
+      <c r="E6" s="10" t="str">
+        <f>'Results-raw'!G11 &amp; CHAR(10) &amp; CHAR(10) &amp; "Type:" &amp; 'Results-raw'!G12  &amp; CHAR(10) &amp; CHAR(10) &amp; "Grants ID:" &amp; 'Results-raw'!G13</f>
         <v xml:space="preserve">
 Type:
 Grants ID:</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="302" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="20" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="302" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="11" t="str">
-        <f>'Results-raw'!F15 &amp; CHAR(10) &amp; CHAR(10) &amp; "Contribution guidelines:" &amp; 'Results-raw'!F16  &amp; CHAR(10) &amp; CHAR(10) &amp; "Erratum:" &amp; 'Results-raw'!F17&amp; CHAR(10) &amp; CHAR(10) &amp; "Data Retention:" &amp; 'Results-raw'!F18</f>
+      <c r="D7" s="10" t="str">
+        <f>'Results-raw'!F14 &amp; CHAR(10) &amp; CHAR(10) &amp; "Contribution guidelines:" &amp; 'Results-raw'!F15  &amp; CHAR(10) &amp; CHAR(10) &amp; "Erratum:" &amp; 'Results-raw'!F16&amp; CHAR(10) &amp; CHAR(10) &amp; "Data Retention:" &amp; 'Results-raw'!F17</f>
         <v xml:space="preserve">
 Contribution guidelines:
 Erratum:
 Data Retention:</v>
       </c>
-      <c r="E7" s="11" t="str">
-        <f>'Results-raw'!G15 &amp; CHAR(10) &amp; CHAR(10) &amp; "Contribution guidelines:" &amp; 'Results-raw'!G16  &amp; CHAR(10) &amp; CHAR(10) &amp; "Erratum:" &amp; 'Results-raw'!G17&amp; CHAR(10) &amp; CHAR(10) &amp; "Data Retention:" &amp; 'Results-raw'!G18</f>
+      <c r="E7" s="10" t="str">
+        <f>'Results-raw'!G14 &amp; CHAR(10) &amp; CHAR(10) &amp; "Contribution guidelines:" &amp; 'Results-raw'!G15  &amp; CHAR(10) &amp; CHAR(10) &amp; "Erratum:" &amp; 'Results-raw'!G16&amp; CHAR(10) &amp; CHAR(10) &amp; "Data Retention:" &amp; 'Results-raw'!G17</f>
         <v xml:space="preserve">
 Contribution guidelines:
 Erratum:
 Data Retention:</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10">
+        <f>'Results-raw'!F18</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <f>'Results-raw'!G18</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="11">
-        <f>'Results-raw'!F19</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <f>'Results-raw'!G19</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="146" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="11" t="e">
-        <f>"License: "&amp; 'Results-raw'!F20 &amp; CHAR(10) &amp; CHAR(10)
-&amp; "Thid-parties in-charge: "&amp; 'Results-raw'!F24 &amp; CHAR(10) &amp; CHAR(10)
-&amp; "Attribution notice: "&amp; 'Results-raw'!F23 &amp; CHAR(10) &amp; CHAR(10)
-&amp; "Data Stand-alone:" &amp; 'Results-raw'!F21  &amp; CHAR(10) &amp; CHAR(10) &amp; "Model trained with the data:" &amp; 'Results-raw'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="11" t="str">
-        <f>"License: "&amp; 'Results-raw'!G21 &amp; CHAR(10) &amp; CHAR(10)
-&amp; "Thid-parties in-charge: "&amp; 'Results-raw'!H25 &amp; CHAR(10) &amp; CHAR(10)
-&amp; "Attribution notice: "&amp; 'Results-raw'!H24 &amp; CHAR(10) &amp; CHAR(10)
-&amp; "Data Stand-alone:" &amp; 'Results-raw'!H22  &amp; CHAR(10) &amp; CHAR(10) &amp; "Model trained with the data:" &amp; 'Results-raw'!H23</f>
+      <c r="D9" s="10" t="str">
+        <f>"License: "&amp; 'Results-raw'!F19 &amp; CHAR(10) &amp; CHAR(10)
+&amp; "Thid-parties in-charge: "&amp; 'Results-raw'!F23 &amp; CHAR(10) &amp; CHAR(10)
+&amp; "Attribution notice: "&amp; 'Results-raw'!F22 &amp; CHAR(10) &amp; CHAR(10)
+&amp; "Data Stand-alone:" &amp; 'Results-raw'!F20  &amp; CHAR(10) &amp; CHAR(10) &amp; "Model trained with the data:"</f>
         <v>License: 
 Thid-parties in-charge: 
 Attribution notice: 
 Data Stand-alone:
 Model trained with the data:</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+      <c r="E9" s="10" t="str">
+        <f>"License: "&amp; 'Results-raw'!G20 &amp; CHAR(10) &amp; CHAR(10)
+&amp; "Thid-parties in-charge: "&amp; 'Results-raw'!H24 &amp; CHAR(10) &amp; CHAR(10)
+&amp; "Attribution notice: "&amp; 'Results-raw'!H23 &amp; CHAR(10) &amp; CHAR(10)
+&amp; "Data Stand-alone:" &amp; 'Results-raw'!H21  &amp; CHAR(10) &amp; CHAR(10) &amp; "Model trained with the data:" &amp; 'Results-raw'!H22</f>
+        <v>License: 
+Thid-parties in-charge: 
+Attribution notice: 
+Data Stand-alone:
+Model trained with the data:</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="22">
+        <f>'Results-raw'!F24</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
+        <f>'Results-raw'!G24</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="356" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="27">
-        <f>'Results-raw'!F25</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="27">
-        <f>'Results-raw'!G25</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="356" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="B11" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="11" t="str">
-        <f>"Files:" &amp;'Results-raw'!F27 &amp; CHAR(10) &amp; CHAR(10) &amp; "Attributes:" &amp; 'Results-raw'!F28</f>
+      <c r="D11" s="10" t="str">
+        <f>"Files:" &amp;'Results-raw'!F26 &amp; CHAR(10) &amp; CHAR(10) &amp; "Attributes:" &amp; 'Results-raw'!F27</f>
         <v>Files:
 Attributes:</v>
       </c>
-      <c r="E11" s="11" t="str">
-        <f>"Fomats:"&amp;'Results-raw'!G26&amp;CHAR(10)&amp;CHAR(10)&amp;'Results-raw'!G27&amp;"Files:"&amp;'Results-raw'!G27&amp;CHAR(10)&amp;CHAR(10)&amp;"Attributes:"&amp;'Results-raw'!G28</f>
+      <c r="E11" s="10" t="str">
+        <f>"Fomats:"&amp;'Results-raw'!G25&amp;CHAR(10)&amp;CHAR(10)&amp;'Results-raw'!G26&amp;"Files:"&amp;'Results-raw'!G26&amp;CHAR(10)&amp;CHAR(10)&amp;"Attributes:"&amp;'Results-raw'!G27</f>
         <v>Fomats:
 Files:
 Attributes:</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="20" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="34"/>
+      <c r="B12" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="D12" s="10">
+        <f>'Results-raw'!F32</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <f>'Results-raw'!G32</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
+      <c r="B13" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="11">
+      <c r="C13" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="10" t="str">
+        <f>'Results-raw'!F31 &amp;  CHAR(10) &amp; CHAR(10) &amp; 'Results-raw'!F30</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="E13" s="10" t="str">
+        <f>'Results-raw'!G31 &amp;  CHAR(10) &amp; CHAR(10) &amp; 'Results-raw'!G30</f>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="191" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="10">
         <f>'Results-raw'!F33</f>
         <v>0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E14" s="10">
         <f>'Results-raw'!G33</f>
         <v>0</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="11" t="str">
-        <f>'Results-raw'!F32 &amp;  CHAR(10) &amp; CHAR(10) &amp; 'Results-raw'!F31</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="E13" s="11" t="str">
-        <f>'Results-raw'!G32 &amp;  CHAR(10) &amp; CHAR(10) &amp; 'Results-raw'!G31</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="191" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="11">
+      <c r="C15" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="10">
         <f>'Results-raw'!F34</f>
         <v>0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="10">
         <f>'Results-raw'!G34</f>
         <v>0</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="124" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="B16" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="11">
-        <f>'Results-raw'!F35</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <f>'Results-raw'!G35</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="82" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="11" t="str">
-        <f>'Results-raw'!F40 &amp; CHAR(10) &amp; CHAR(10) &amp; "Type: "&amp;  'Results-raw'!F41 &amp; CHAR(10) &amp; CHAR(10) &amp; "Demographics: " &amp;  'Results-raw'!F42</f>
+      <c r="D16" s="10" t="str">
+        <f>'Results-raw'!F39 &amp; CHAR(10) &amp; CHAR(10) &amp; "Type: "&amp;  'Results-raw'!F40 &amp; CHAR(10) &amp; CHAR(10) &amp; "Demographics: " &amp;  'Results-raw'!F41</f>
         <v xml:space="preserve">
 Type: 
 Demographics: </v>
       </c>
-      <c r="E16" s="11" t="str">
-        <f>'Results-raw'!G40 &amp; CHAR(10) &amp; CHAR(10) &amp; "Type: "&amp;  'Results-raw'!G41 &amp; CHAR(10) &amp; CHAR(10) &amp; "Demographics: " &amp;  'Results-raw'!G42</f>
+      <c r="E16" s="10" t="str">
+        <f>'Results-raw'!G39 &amp; CHAR(10) &amp; CHAR(10) &amp; "Type: "&amp;  'Results-raw'!G40 &amp; CHAR(10) &amp; CHAR(10) &amp; "Demographics: " &amp;  'Results-raw'!G41</f>
         <v xml:space="preserve">
 Type: 
 Demographics: </v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="82" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="82" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
+      <c r="C18" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="11" t="str">
-        <f>'Results-raw'!F38 &amp; CHAR(10) &amp; CHAR(10) &amp;  'Results-raw'!F39 &amp; CHAR(10)</f>
+      <c r="D18" s="10" t="str">
+        <f>'Results-raw'!F37 &amp; CHAR(10) &amp; CHAR(10) &amp;  'Results-raw'!F38 &amp; CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E18" s="11" t="str">
-        <f>'Results-raw'!G38 &amp; CHAR(10) &amp; CHAR(10) &amp;  'Results-raw'!G39 &amp; CHAR(10) &amp; CHAR(10)</f>
+      <c r="E18" s="10" t="str">
+        <f>'Results-raw'!G37 &amp; CHAR(10) &amp; CHAR(10) &amp;  'Results-raw'!G38 &amp; CHAR(10) &amp; CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
+      <c r="B19" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="11" t="str">
-        <f>"Timeframe:" &amp;'Results-raw'!F36 &amp; CHAR(10) &amp; CHAR(10) &amp;"Geographical:" &amp; 'Results-raw'!F37</f>
+      <c r="D19" s="10" t="str">
+        <f>"Timeframe:" &amp;'Results-raw'!F35 &amp; CHAR(10) &amp; CHAR(10) &amp;"Geographical:" &amp; 'Results-raw'!F36</f>
         <v>Timeframe:
 Geographical:</v>
       </c>
-      <c r="E19" s="11" t="str">
-        <f>'Results-raw'!G36 &amp; CHAR(10) &amp; CHAR(10) &amp; 'Results-raw'!G37</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="173" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="E19" s="10" t="str">
+        <f>"Timeframe:" &amp;'Results-raw'!G35 &amp; CHAR(10) &amp; CHAR(10) &amp; "Geographical:" &amp; 'Results-raw'!G36</f>
+        <v>Timeframe:
+Geographical:</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="173" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="21" t="s">
+      <c r="D20" s="10">
+        <f>'Results-raw'!F42</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <f>'Results-raw'!G42</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
+      <c r="B21" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="10">
         <f>'Results-raw'!F43</f>
         <v>0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="10">
         <f>'Results-raw'!G43</f>
         <v>0</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="21" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="34"/>
+      <c r="B22" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="11">
+      <c r="C22" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="10">
         <f>'Results-raw'!F44</f>
         <v>0</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="10">
         <f>'Results-raw'!G44</f>
         <v>0</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="44" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="21" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="166" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
+      <c r="B23" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="11">
-        <f>'Results-raw'!F45</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
-        <f>'Results-raw'!G45</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="166" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="11" t="str">
-        <f>'Results-raw'!F46 &amp; CHAR(10) &amp; CHAR(10) &amp; "Type:" &amp;'Results-raw'!F47 &amp; CHAR(10) &amp; CHAR(10) &amp; "Demographics:" &amp;'Results-raw'!F48</f>
+      <c r="D23" s="10" t="str">
+        <f>'Results-raw'!F45 &amp; CHAR(10) &amp; CHAR(10) &amp; "Type:" &amp;'Results-raw'!F46 &amp; CHAR(10) &amp; CHAR(10) &amp; "Demographics:" &amp;'Results-raw'!F47</f>
         <v xml:space="preserve">
 Type:
 Demographics:</v>
       </c>
-      <c r="E23" s="11" t="str">
-        <f>'Results-raw'!G46 &amp; CHAR(10) &amp; CHAR(10) &amp; "Type:" &amp;'Results-raw'!G47 &amp; CHAR(10) &amp; CHAR(10) &amp; "Demographics:" &amp;'Results-raw'!G48</f>
+      <c r="E23" s="10" t="str">
+        <f>'Results-raw'!G45 &amp; CHAR(10) &amp; CHAR(10) &amp; "Type:" &amp;'Results-raw'!G46 &amp; CHAR(10) &amp; CHAR(10) &amp; "Demographics:" &amp;'Results-raw'!G47</f>
         <v xml:space="preserve">
 Type:
 Demographics:</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="20" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="34"/>
+      <c r="B24" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="D24" s="10">
+        <f>'Results-raw'!F48</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <f>'Results-raw'!G48</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="11">
+      <c r="C25" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="10">
         <f>'Results-raw'!F49</f>
         <v>0</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="10">
         <f>'Results-raw'!G49</f>
         <v>0</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="31"/>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="21" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="351" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="11">
-        <f>'Results-raw'!F50</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
-        <f>'Results-raw'!G50</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="31"/>
-    </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="351" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="B26" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" s="11" t="str">
-        <f>'Results-raw'!F51 &amp;  CHAR(10) &amp; " " &amp;'Results-raw'!F52&amp;   CHAR(10) &amp;  CHAR(10) &amp; CHAR(10) &amp; 'Results-raw'!F54 &amp;  CHAR(10) &amp; " " &amp;'Results-raw'!F55 &amp; CHAR(10) &amp;    CHAR(10) &amp;   'Results-raw'!F57 &amp;  CHAR(10) &amp; " " &amp;'Results-raw'!F58 &amp;   CHAR(10)</f>
+      <c r="D26" s="10" t="str">
+        <f>'Results-raw'!F50 &amp;  CHAR(10) &amp; " " &amp;'Results-raw'!F51&amp;   CHAR(10) &amp;  CHAR(10) &amp; CHAR(10) &amp; 'Results-raw'!F53 &amp;  CHAR(10) &amp; " " &amp;'Results-raw'!F54 &amp; CHAR(10) &amp;    CHAR(10) &amp;   'Results-raw'!F56 &amp;  CHAR(10) &amp; " " &amp;'Results-raw'!F57 &amp;   CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E26" s="11" t="str">
-        <f>'Results-raw'!G51 &amp;  CHAR(10) &amp; " " &amp;'Results-raw'!G52&amp;   CHAR(10) &amp;  CHAR(10) &amp; CHAR(10) &amp; 'Results-raw'!G54 &amp;  CHAR(10) &amp; " " &amp;'Results-raw'!G55 &amp; CHAR(10) &amp;    CHAR(10) &amp;   'Results-raw'!G57 &amp;  CHAR(10) &amp; " " &amp;'Results-raw'!G58 &amp;   CHAR(10)</f>
+      <c r="E26" s="10" t="str">
+        <f>'Results-raw'!G50 &amp;  CHAR(10) &amp; " " &amp;'Results-raw'!G51&amp;   CHAR(10) &amp;  CHAR(10) &amp; CHAR(10) &amp; 'Results-raw'!G53 &amp;  CHAR(10) &amp; " " &amp;'Results-raw'!G54 &amp; CHAR(10) &amp;    CHAR(10) &amp;   'Results-raw'!G56 &amp;  CHAR(10) &amp; " " &amp;'Results-raw'!G57 &amp;   CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="31"/>
-    </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
+      <c r="B27" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="27" t="str">
-        <f>'Results-raw'!F53 &amp;  CHAR(10) &amp; 'Results-raw'!F56 &amp;  CHAR(10) &amp;  'Results-raw'!F59 &amp;  CHAR(10)</f>
+      <c r="D27" s="22" t="str">
+        <f>'Results-raw'!F52 &amp;  CHAR(10) &amp; 'Results-raw'!F55 &amp;  CHAR(10) &amp;  'Results-raw'!F58 &amp;  CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E27" s="27" t="str">
-        <f>'Results-raw'!G53 &amp;  CHAR(10) &amp; 'Results-raw'!G56 &amp;  CHAR(10) &amp;  'Results-raw'!G59 &amp;  CHAR(10)</f>
+      <c r="E27" s="22" t="str">
+        <f>'Results-raw'!G52 &amp;  CHAR(10) &amp; 'Results-raw'!G55 &amp;  CHAR(10) &amp;  'Results-raw'!G58 &amp;  CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="31"/>
-    </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" ht="53" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="D28" s="10">
+        <f>'Results-raw'!F65</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <f>'Results-raw'!G65</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="31"/>
+      <c r="B29" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="11">
-        <f>'Results-raw'!F66</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
-        <f>'Results-raw'!G66</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="31"/>
-    </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" ht="198" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="29" t="s">
+      <c r="C29" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D29" s="11" t="str">
-        <f>"Representativeness issues:" &amp;'Results-raw'!F67 &amp; CHAR(10) &amp;CHAR(10) &amp;  "Imbalances: "&amp; 'Results-raw'!F68 &amp; CHAR(10) &amp; CHAR(10)  &amp; "Sensitivity: " &amp; 'Results-raw'!F69</f>
+      <c r="D29" s="10" t="str">
+        <f>"Representativeness issues:" &amp;'Results-raw'!F66 &amp; CHAR(10) &amp;CHAR(10) &amp;  "Imbalances: "&amp; 'Results-raw'!F67 &amp; CHAR(10) &amp; CHAR(10)  &amp; "Sensitivity: " &amp; 'Results-raw'!F68</f>
         <v xml:space="preserve">Representativeness issues:
 Imbalances: 
 Sensitivity: </v>
       </c>
-      <c r="E29" s="11" t="str">
-        <f>"Representativeness issues:" &amp;'Results-raw'!G67 &amp; CHAR(10) &amp;CHAR(10) &amp;  "Imbalances: "&amp; 'Results-raw'!G68 &amp; CHAR(10) &amp; CHAR(10)  &amp; "Sensitivity: " &amp; 'Results-raw'!G69</f>
+      <c r="E29" s="10" t="str">
+        <f>"Representativeness issues:" &amp;'Results-raw'!G66 &amp; CHAR(10) &amp;CHAR(10) &amp;  "Imbalances: "&amp; 'Results-raw'!G67 &amp; CHAR(10) &amp; CHAR(10)  &amp; "Sensitivity: " &amp; 'Results-raw'!G68</f>
         <v xml:space="preserve">Representativeness issues:
 Imbalances: 
 Sensitivity: </v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="31"/>
-    </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="20" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="31"/>
+      <c r="B30" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="11">
-        <f>'Results-raw'!F70</f>
+      <c r="D30" s="10">
+        <f>'Results-raw'!F69</f>
         <v>0</v>
       </c>
-      <c r="E30" s="11">
-        <f>'Results-raw'!G70</f>
+      <c r="E30" s="10">
+        <f>'Results-raw'!G69</f>
         <v>0</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="31"/>
-    </row>
-    <row r="31" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A26:A27"/>
@@ -2274,32 +2202,18 @@
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A20:A25"/>
   </mergeCells>
-  <conditionalFormatting sqref="G75:I82 G2:I30">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Fair">
+  <conditionalFormatting sqref="G2:H30 G75:H86">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Fair">
       <formula>NOT(ISERROR(SEARCH("Fair",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Bad">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Bad">
       <formula>NOT(ISERROR(SEARCH("Bad",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" stopIfTrue="1" operator="containsText" text="Good">
+    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="Good">
       <formula>NOT(ISERROR(SEARCH("Good",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Hallucinate">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Hallucinate">
       <formula>NOT(ISERROR(SEARCH("Hallucinate",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83:I86">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fair">
-      <formula>NOT(ISERROR(SEARCH("Fair",G83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Bad">
-      <formula>NOT(ISERROR(SEARCH("Bad",G83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" stopIfTrue="1" operator="containsText" text="Good">
-      <formula>NOT(ISERROR(SEARCH("Good",G83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Hallucinate">
-      <formula>NOT(ISERROR(SEARCH("Hallucinate",G83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2308,10 +2222,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2337,7 +2251,7 @@
         <v>130</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2461,49 +2375,60 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
       <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
@@ -2511,44 +2436,44 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -2556,14 +2481,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -2571,14 +2496,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -2586,14 +2511,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -2601,14 +2526,14 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -2616,14 +2541,14 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -2631,14 +2556,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -2646,14 +2571,14 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -2661,14 +2586,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -2676,14 +2601,14 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -2691,14 +2616,14 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -2706,14 +2631,14 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -2721,14 +2646,14 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -2736,14 +2661,14 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -2751,14 +2676,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -2766,14 +2691,14 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -2781,14 +2706,14 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -2796,14 +2721,14 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -2811,14 +2736,14 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -2826,14 +2751,14 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -2841,14 +2766,14 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -2856,14 +2781,14 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -2871,14 +2796,14 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -2886,14 +2811,14 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -2901,14 +2826,14 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -2916,14 +2841,14 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -2931,14 +2856,14 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -2946,44 +2871,44 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -2991,14 +2916,14 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -3006,14 +2931,14 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -3021,14 +2946,14 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -3036,14 +2961,14 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -3051,29 +2976,29 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
         <v>107</v>
@@ -3081,44 +3006,44 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E54" t="s">
         <v>107</v>
@@ -3126,44 +3051,44 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E57" t="s">
         <v>107</v>
@@ -3171,44 +3096,44 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E60" t="s">
         <v>107</v>
@@ -3216,44 +3141,44 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E63" t="s">
         <v>107</v>
@@ -3261,29 +3186,29 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -3291,14 +3216,14 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -3306,14 +3231,14 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -3321,14 +3246,14 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -3336,31 +3261,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>67</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" t="s">
         <v>11</v>
       </c>
     </row>
